--- a/workaw_data.xlsx
+++ b/workaw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuck\Documents\AI\demo\workaw_chatbot\workaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2484C298-9B55-4134-8D41-9542CF88E1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F17A94-E44B-4CC1-A9F9-638F069AA879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{64D59F0A-8640-4EF3-95CC-009CBE3BA196}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>context</t>
   </si>
@@ -615,6 +615,17 @@
 วันเปิดภาคเรียน 
 วันที่ 20 มิถุนายน 2569</t>
   </si>
+  <si>
+    <t>ช่องทางติดต่อ คณะศึกษาศาสตร์และนวัตกรรมการศึกษา มหาวิทยาลัยกาฬสินธุ์ 
+เว็บไซต์คณะ : https://ed.ksu.ac.th/
+Facebook : https://www.facebook.com/edi.ksu.in.th
+Youtube : https://www.youtube.com/channel/UC5RGGaDsorV22A2TJqmRN_A
+ที่อยู่ คณะศึกษาศาสตร์และนวัตกรรมการศึกษา มหาวิทยาลัยกาฬสินธุ์ (พื้นที่นามน)
+เลขที่ 13 ม. 14 ต.สงเปลือย อ.นามน จ. กาฬสินธุ์ 46230
+โทรศัพท์ 043-602037 โทรสาร 043-602037
+อีเมล edu@ksu.ac.th
+พิกัด Google Map :  https://maps.app.goo.gl/Pg7ZK4DVtWa2aUpt8?g_st=ipc</t>
+  </si>
 </sst>
 </file>
 
@@ -657,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,9 +678,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,7 +1020,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1026,7 +1034,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1041,25 +1049,27 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:1" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>

--- a/workaw_data.xlsx
+++ b/workaw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuck\Documents\AI\demo\workaw_chatbot\workaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F17A94-E44B-4CC1-A9F9-638F069AA879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A20B0-28C2-4AFD-A81D-AA7E68059140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{64D59F0A-8640-4EF3-95CC-009CBE3BA196}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>context</t>
   </si>
@@ -626,6 +626,161 @@
 อีเมล edu@ksu.ac.th
 พิกัด Google Map :  https://maps.app.goo.gl/Pg7ZK4DVtWa2aUpt8?g_st=ipc</t>
   </si>
+  <si>
+    <t>อาจารย์และบุคลากร คณะศึกษาศาสตร์และนวัตกรรมการศึกษา
+ผู้บริหารคณะศึกษาศาสตร์และนวัตกรรมการศึกษา
+- ผศ.ดร.ลาวัณย์ ดุลยชาติ (คณบดี)
+- ผศ.ดร.วทัญญู แก้วสุพรรณ (รองคณบดีงานบริหารและวางแผน)
+- ผศ.นคินทร พัฒนชัย (รองคณบดีงานวิชาการและวิจัย)
+- ดร.ปัญญา เถาว์ชาลี (รองคณบดีงานกิจการนักศึกษา)
+- ผศ.ดร.ทิพย์อุบล ทิพเลิศ (ผู้ช่วยคณบดีงานโครงการจัดตั้งโรงเรียนสาธิต มหาวิทยาลัยกาฬสินธุ์)
+- อาจารย์รศรงค์ พัฒนาอนุสรณ์ (ผู้ช่วยคณบดีงานศูนย์ความเป็นเลิศด้านนวัตกรรมการจัดการเรียนรู้)
+- อาจารย์ธีรภัทร สินธุเดช (ผู้ช่วยคณบดีงานประกันคุณภาพการศึกษา)
+- ผศ.วรนุช นิลเขต (ผู้ช่วยคณบดีงานบริหารโครงการครูรัก(ษ์)ถิ่น)
+- อาจารย์กมลพัฒน์ ไชยสงคราม (ผู้ช่วยคณบดีงานวิเทศสัมพันธ์)
+- อาจารย์ปรีชา ทับสมบัติ (ผู้ช่วยคณบดีงานกิจการพิเศษ)
+- อาจารย์สมใจ ภูครองทุ่ง (ผู้ช่วยคณบดีงานฝึกประสบการณ์วิชาชีพครู)
+- ว่าที่ร้อยตรีวรพัทธนันท์ ศรีสูงเนิน (ปฏิบัติหน้าที่หัวหน้าสำนักงานคณบดี)
+อาจารย์ประจำหลักสูตรครุศาสตรบัณฑิต สาขาวิชานวัตกรรมการจัดการเรียนรู้ ระดับปริญญาตรี 12 วิชาเอก
+-ผศ.ดร.สายหยุด ภูปุย (หัวหน้าสาขาวิชานวัตกรรมการจัดการเรียนรู้)
+1.วิชาเอกการศึกษาปฐมวัย
+- จำลองลักษณ์ เสียงสนั่น (หัวหน้าวิชาเอกการศึกษาปฐมวัย)
+- ผศ.ดร.สายหยุด ภูปุย
+- ผศ.วรนุช นิลเขต
+- อาจารย์สุกานดา ภูจีระ
+- อาจารย์ณัฐฐิยา ภูมิโยชน์
+2.วิชาเอกการประถมศึกษา
+- ผศ.ดร.ณิชาภาท์ กันขุนทศ (หัวหน้าวิชาเอกการประถมศึกษา)
+- ดร.สุพจน์ ดวงเนตร
+- อาจารย์เยาวเรศ รัตนธารทอง
+- ผศ.ดร.นาตยา หกพันนา
+- อาจารย์ศศิธร แสนพันดร
+3.วิชาเอกภาษาไทย
+- วัชรวร วงศ์กัณหา (หัวหน้าวิชาเอกภาษาไทย)
+- อาจารย์ธีรภัทร สินธุเดช
+- ผศ.ดร.อนุชา พิมศักดิ์
+- อาจารย์นิวัฒน์ ชินเสริม
+- อาจารย์จารญา อนันตะวัน
+4.วิชาเอกภาษาอังกฤษ
+- อาจารย์นฤตา หงษ์ษา (หัวหน้าวิชาเอกภาษาอังกฤษ)
+- อาจารย์นันทณัฏฐ์ เวียงอินทร์
+- ผศ.ศศิกร สุรมณี
+- อาจารย์กมลพัฒน์ ไชยสงคราม
+- อาจารย์ภัทราภรณ์ วาทะวัฒนะ
+5.วิชาเอกคอมพิวเตอร์
+- ว่าที่ ร.ต.สุรจักษ์ พิริยะเชิดชูชัย (หัวหน้าวิชาเอกคอมพิวเตอร์)
+- ผศ.นคินทร พัฒนชัย
+- ผศ.ดร.สวียา สุรมณี
+- ผศ.ดร.ลาวัณย์ ดุลยชาติ
+- ผศ.ดร.อัญญปารย์ ศิลปนิลมาลย์
+- อาจารย์ธีรชาติ น้อยสมบัติ
+- อาจารย์รศรงค์ พัฒนาอนุสรณ์
+6.วิชาเอกวิทยาศาสตร์ทั่วไป
+- ผศ.ตะวัน ทองสุข (หัวหน้าวิชาเอกวิทยาศาสตร์ทั่วไป)
+- ผศ.ดร.ชุลิดา เหมตะศิลป์
+- ผศ.ดร.วิศรุต พยุงเกียรติคุณ
+- ผศ.อังคาร อินทนิล
+7.วิชาเอกคณิตศาสตร์
+- ผศ.ประภาพร หนองหารพิทักษ์ (หัวหน้าวิชาเอกคณิตศาสตร์)
+- ผศ.ดร.ปนัดดา สังข์ศรีแก้ว
+- ผศ.ดร.ปวีณา ขันธ์ศิลา
+- ผศ.ดร.วรรณธิดา ยลวิลาศ
+- อาจารย์สมใจ ภูครองทุ่ง
+- ผศ.สุวรรณวัฒน์ เทียนยุทธกุล
+8.วิชาเอกสังคมศึกษา
+- ดร.นิติยา ค้อไผ่ (หัวหน้าวิชาเอกสังคมศึกษา)
+- ดร.ปัญญา เถาว์ชาลี
+- ผศ.ดร.แจ่มจันทร์ ณ กาฬสินธุ์
+- อาจารย์อภิรดี ดอนอ่อนเบ้า
+- อาจารย์ธนาคาร ผินสู่
+9.วิชาเอกเกษตรศาสตร์
+- ดร.สุภาพร พุ่มริ้ว (หัวหน้าวิชาเอกเกษตรศาสตร์)
+- ผศ.ดร.กีรวิชญ์ เพชรจุล อาจารย์(สังกัดคณะเทคโนโลยีการเกษตร)
+- ผศ.ดร.ชโลธร อัมพร อาจารย์(สังกัดคณะเทคโนโลยีการเกษตร)
+- ดร.วรมัน ไม้เจริญ อาจารย์(สังกัดคณะเทคโนโลยีการเกษตร)
+- ว่าที่ร้อยตรี ดร.ธนภูมิ บุญมี อาจารย์(สังกัดคณะเทคโนโลยีการเกษตร)
+- ดร.ประสิทธิ์ ขุนสนิท อาจารย์(สังกัดคณะเทคโนโลยีการเกษตร)
+10.วิชาเอกชีววิทยา
+- ผศ.ดร.กชพรรณ วงค์เจริญ (หัวหน้าวิชาเอกชีววิทยา) อาจารย์(คณะวิทยาศาสตร์และเทคโนโลยีสุขภาพ)
+- ผศ.ดร.ทิพย์อุบล ทิพเลิศ
+- ผศ.ดร.ระพีพรรณ ประจันตะเสน อาจารย์(คณะวิทยาศาสตร์และเทคโนโลยีสุขภาพ)
+11.วิชาเอกพลศึกษา
+- อาจารย์ปรีชา ทับสมบัติ (หัวหน้าวิชาเอกพลศึกษา)
+- อาจารย์ธนัญชัย เฉลิมสุข
+- ผศ.ดร.วทัญญู แก้วสุพรรณ
+- อาจารย์ภัทรนิณทร์ เหล่าแสงสา
+12.วิชาเอกฟิสิกส์
+- ผศ.ศิริพร จรรยา (หัวหน้าวิชาเอกฟิสิกส์)
+- อาจารย์จตุพร คำสงค์ อาจารย์(คณะวิทยาศาสตร์และเทคโนโลยีสุขภาพ)
+- อาจารย์เจษฎา ขจรฤทธิ์ อาจารย์(คณะวิทยาศาสตร์และเทคโนโลยีสุขภาพ)
+อาจารย์ประจำหลักสูตรประกาศนียบัตรบัณฑิต สาขาวิชานวัตกรรมการจัดการเรียนรู้
+- ดร.สุพจน์ ดวงเนตร (ประธานหลักสูตร)
+- ผศ.ดร.แจ่มจันทร์ ณ กาฬสินธุ์
+- ผศ.ดร.ณิชาภาท์ กันขุนทศ
+- ผศ.ดร.คมสันทิ์ ขจรปัญญาไพศาล
+- ผศ.ดร.ลาวัณย์ ดุลยชาติ
+- ผศ.ดร.ศักดิ์สิทธิ์ ฤทธิลัน
+- ผศ.ดร.สายหยุด ภูปุย
+- ผศ.ดร.วรรณธิดา ยลวิลาศ
+- ผศ.ดร.ปนัดดา สังข์ศรีแก้ว
+- ดร.ปัญญา เถาว์ชาลี
+- ผศ.ดร.ทิพย์อุบล ทิพเลิศ
+- อาจารย์นันทนัฏฐ์ เวียงอินทร์
+- ผศ.ศศิกร สุรมณี
+- อาจารย์กมลพัฒน์ ไชยสงคราม
+- ผศ.ดร.สวียา สุรมณี
+- ผศ.ดร.อัญญปารย์ ศิลปนิลมาลย์
+- ผศ.ดร.นาตยา หกพันนา
+- ผศ.ดร.อมร มะลาศรี
+- อาจารย์เยาวเรศ รัตนธารทอง
+อาจารย์ประจำหลักสูตรประกาศนียบัตรบัณฑิตชั้นสูง สาขาวิชานวัตกรรมการจัดการเรียนรู้
+- ผศ.ดร.ปนัดดา สังข์ศรีแก้ว (ประธานหลักสูตร)
+- ผศ.ดร.ลาวัณย์ ดุลยชาติ
+- ผศ.ดร.ปวีณา ขันธ์ศิลา
+- ผศ.ดร.สายหยุด ภูปุย
+- ผศ.ดร.แจ่มจันทร์ ณ กาฬสินธุ์
+- ผศ.ดร.อนุชา พิมศักดิ์
+- ผศ.ดร.คมสันทิ์ ขจรปัญญาไพศาล
+- ผศ.ดร.ศักดิ์สิทธิ์ ฤทธิลัน
+- ผศ.ดร.วรรณธิดา ยลวิลาศ
+- ดร.สุพจน์ ดวงเนตร
+อาจารย์ประจำหลักสูตรครุศาสตรมหาบัณฑิต สาขาวิชาการบริหารการศึกษา ระดับปริญญาโท
+- ผศ.ดร.คมสันทิ์ ขจรปัญญาไพศาล (หัวหน้าสาขาวิชาการบริหารการศึกษา/ประธานหลักสูตร)
+- ผศ.ดร.อมร มะลาศรี
+- ผศ.ดร.ศักดิ์สิทธิ์ ฤทธิลัน
+อาจารย์ประจำหลักสูตรครุศาสตรมหาบัณฑิต สาขาวิชานวัตกรรมการจัดการเรียนรู้ ระดับปริญญาโท
+- ผศ.ดร.สายหยุด ภูปุย (ประธานหลักสูตร)
+- ผศ.ดร.วรรณธิดา ยลวิลาศ
+- ผศ.ดร.อนุชา พิมศักดิ์
+- ผศ.ดร.อัญญปารย์ ศิลปนิลมาลย์
+- ผศ.ดร.ปวีณา ขันธ์ศิลา
+- ผศ.ดร.ชุลิดา เหมตะศิลป์
+- ผศ.ดร.วิศรุต พยุงเกียรติคุณ
+อาจารย์ประจำหลักสูตรครุศาสตรดุษฎีบัณฑิต สาขาวิชานวัตกรรมการจัดการเรียนรู้ ระดับปริญญาเอก
+- ผศ.ดร.วิศรุต พยุงเกียรติคุณ (ประธานหลักสูตร)
+- ผศ.ดร.สายหยุด ภูปุย
+- ผศ.ดร.อนุชา พิมศักดิ์
+- ผศ.ดร.อัญญปารย์ ศิลปนิลมาลย์
+- ผศ.ดร.ปวีณา ขันธ์ศิลา
+- ผศ.ดร.ชุลิดา เหมตะศิลป์
+- ผศ.ดร.วรรณธิดา ยลวิลาศ
+บุคลากรสายสนับสนุน สำนักงานคณบดี คณะศึกษาศาสตร์และนวัตกรรมการศึกษา
+1.ว่าที่ร้อยตรีหญิงวรพัทธนันท์ ศรีสูงเนิน (ตำแหน่งนักวิชาการเงินและบัญชี ชำนาญการ ปฏิบัติหน้าที่หัวหน้าสำนักงาน และหัวหน้างานบริหารและวางแผน)
+2.นางสาวภารดี จันทร์ลอย (ตำแหน่งเจ้าหน้าที่บริหารงานทั่วไป หัวหน้างานวิชาการและวิจัย รับผิดชอบงานประกันคุณภาพการศึกษา)
+3.นายสัณห์ แทบพล (ตำแหน่งนักวิชาการศึกษา หัวหน้างานกิจการนักศึกษา รับผิดชอบงานกิจการนักศึกษา)
+4.นางสาวปนัดดา ดวงเพชรแสง (ตำแหน่งเจ้าหน้าที่บริหารงานทั่วไป ชำนาญการ รับผิดชอบงานพัสดุและสินทรัพย์)
+5.นางสาวสุนันทา จันมีวงษ์ (ตำแหน่งนักวิชาการศึกษา ชำนาญการ รับผิดชอบงานบัณฑิตศึกษาระดับปริญญาโท-เอก สาขาวิชานวัตกรรมการจัดการเรียนรู้)
+6.นางสาวปิยนุช เกี้ยนมา (ตำแหน่งเจ้าหน้าที่บริหารงานทั่วไป รับผิดชอบงานวิชาการระดับปริญญาตรี)
+7.นางธนิกานต์ วินิจ (ตำแหน่งเจ้าหน้าที่บริหารงานทั่วไป รับผิดชอบงานธุรการและสารบรรณ)
+8.นางสาวนิตยา บุญนามน (ตำแหน่งเจ้าหน้าที่บริหารงานทั่วไป รับผิดชอบงานบัณฑิตศึกษาระดับปริญญาโท สาขาวิชาการบริหารการศึกษา)
+9.นายอนุชิต คำหินกอง (ตำแหน่งนักวิชาการศึกษา รับผิดชอบงานฝึกประสบการณ์วิชาชีพครู)
+10.นางสาววิรัชดา พรมคำบุตร (ตำแหน่งนักวิชาการศึกษา รับผิดชอบงานธุรการงานกิจการนักศึกษา)
+11.นางสาวสุกัญญา ขะกิจ (ตำแหน่งนักวิชาการศึกษา รับผิดชอบงานประชาสัมพันธ์และสื่อสารองค์กร และเป็นผู้สร้าง AI Chatbot ที่คุณกำลังใช้อยู่นี้)
+12.นางสาวอณัฐนงค์ พูลจรัส (ตำแหน่งเจ้าหน้าที่บริหารงานทั่วไป รับผิดชอบงานอาคารสถานที่และงานพัสดุโครงการครูรัก(ษ์)ถิ่น)
+13.นายประเสริฐศักดิ์ วันนุกูล (ตำแหน่งนักวิชาการโสตทัศนศึกษา รับผิดชอบงานโสตทัศนูปกรณ์)
+14.นางสาวศุภลักษณา ภูกาสอน (ตำแหน่งเจ้าหน้าที่บริหารงานทั่วไป รับผิดชอบงานบริหารและวางแผน)
+15.นางสาวนาฎนภา นามเขต (ตำแหน่งนักวิชาการศึกษา รับผิดชอบงานโครงการครูรัก(ษ์)ถิ่น)</t>
+  </si>
 </sst>
 </file>
 
@@ -680,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1175,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1063,13 +1218,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
